--- a/SVD_Files/WDT.xlsx
+++ b/SVD_Files/WDT.xlsx
@@ -350,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,30 +358,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -662,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +753,7 @@
     <col min="2" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -700,538 +779,616 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>9</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>0</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
@@ -1244,13 +1401,12 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>